--- a/doku/Keypad.xlsx
+++ b/doku/Keypad.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Decrement     Y Axis</t>
   </si>
   <si>
-    <t>Change Tool</t>
-  </si>
-  <si>
     <t>Stop Print</t>
   </si>
   <si>
@@ -65,19 +62,22 @@
     <t>Start Print</t>
   </si>
   <si>
-    <t>(Emergency Stop?)</t>
-  </si>
-  <si>
     <t>Retract Material</t>
   </si>
   <si>
     <t>Extrude Material</t>
+  </si>
+  <si>
+    <t>User Key 2</t>
+  </si>
+  <si>
+    <t>Change Tool / User Key 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,20 +584,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,13 +605,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -625,32 +625,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
